--- a/example/input/config.xlsx
+++ b/example/input/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>26.5</v>

--- a/example/input/config.xlsx
+++ b/example/input/config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>uzi,theshy,faker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,8 +190,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -191,10 +201,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -675,9 +687,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>26.5</v>
       </c>
@@ -692,8 +701,8 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>18</v>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
       <c r="C4">
         <v>18.5</v>
@@ -702,12 +711,30 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>18.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/example/input/config.xlsx
+++ b/example/input/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>facker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -638,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -651,75 +663,69 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>26.5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
       <c r="C5">
         <v>18.5</v>
@@ -728,6 +734,23 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>18.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/example/input/config.xlsx
+++ b/example/input/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>真实年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -652,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
